--- a/data/2023/ssg/3,1_DE-206+DE-206H.xlsx
+++ b/data/2023/ssg/3,1_DE-206+DE-206H.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Financial times historical archive</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
   </si>
   <si>
     <t>070;330;380</t>
@@ -773,7 +776,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -788,10 +791,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -812,10 +815,10 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
         <v>37</v>
@@ -830,10 +833,10 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023/ssg/3,1_DE-206+DE-206H.xlsx
+++ b/data/2023/ssg/3,1_DE-206+DE-206H.xlsx
@@ -163,7 +163,7 @@
     <t>NL</t>
   </si>
   <si>
-    <t>0</t>
+    <t>547</t>
   </si>
   <si>
     <t>2597249-2</t>
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
         <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25">
